--- a/名称住所シート.xlsx
+++ b/名称住所シート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4752382e91bc7652/ドキュメント/登山資料/食事処温泉まとめ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{81293322-8B1C-42F7-BFAD-98084E8A8ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54CCDEF6-7A44-4EA0-9181-11F72544697F}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{81293322-8B1C-42F7-BFAD-98084E8A8ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{036ED559-11CA-4B82-9CCD-33022682CF4B}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="570" windowWidth="14290" windowHeight="8690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34830" yWindow="4680" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="279">
   <si>
     <t>名称</t>
   </si>
@@ -957,9 +957,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>36.18903345655904, 137.55117226199806</t>
-  </si>
-  <si>
     <t>ひだ荘川温泉　桜香の湯</t>
   </si>
   <si>
@@ -1877,6 +1874,24 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>うどん屋だがオムライスがうまい。</t>
+    <rPh sb="3" eb="4">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>大人が800円　肌がつるつるになる美肌効果がある</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ソースカツ丼。元祖らしい。</t>
+    <rPh sb="7" eb="9">
+      <t>ガンソ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -2104,6 +2119,10 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -2305,10 +2324,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G123"/>
+  <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F121" workbookViewId="0">
-      <selection activeCell="F124" sqref="F124"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3427,11 +3446,11 @@
         <v>115</v>
       </c>
       <c r="D64" s="11" t="str">
-        <f t="shared" ref="D64:D123" si="0">MID($C64,FIND(",",$C64,1)+2,LEN($C64)-FIND(",",$C64,1))</f>
+        <f t="shared" ref="D64:D122" si="0">MID($C64,FIND(",",$C64,1)+2,LEN($C64)-FIND(",",$C64,1))</f>
         <v>136.90229449305352</v>
       </c>
       <c r="E64" s="11" t="str">
-        <f t="shared" ref="E64:E123" si="1">MID($C64,1,FIND(",",$C64,1)-1)</f>
+        <f t="shared" ref="E64:E122" si="1">MID($C64,1,FIND(",",$C64,1)-1)</f>
         <v>36.17324745341698</v>
       </c>
       <c r="F64" t="s">
@@ -3591,13 +3610,13 @@
     </row>
     <row r="72" spans="1:6" ht="12.5">
       <c r="A72" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B72" t="s">
         <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D72" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3731,6 +3750,9 @@
         <f t="shared" si="1"/>
         <v>35.47150892066701</v>
       </c>
+      <c r="F78" s="11" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="79" spans="1:6" ht="12.5">
       <c r="A79" s="13" t="s">
@@ -3816,6 +3838,9 @@
         <f t="shared" si="1"/>
         <v>35.45622358716051</v>
       </c>
+      <c r="F82" s="11" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="83" spans="1:6" ht="16.5">
       <c r="A83" s="12" t="s">
@@ -3862,27 +3887,27 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="12.5">
-      <c r="A85" s="13" t="s">
-        <v>170</v>
+      <c r="A85" s="11" t="s">
+        <v>171</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D85" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>137.55117226199806</v>
+        <v>136.9653865271995</v>
       </c>
       <c r="E85" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>36.18903345655904</v>
+        <v>36.02147336154716</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="12.5">
       <c r="A86" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -3892,179 +3917,182 @@
       </c>
       <c r="D86" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>136.9653865271995</v>
+        <v>137.41321527929483</v>
       </c>
       <c r="E86" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>36.02147336154716</v>
-      </c>
+        <v>35.675296304576094</v>
+      </c>
+      <c r="F86" s="13"/>
     </row>
     <row r="87" spans="1:6" ht="12.5">
       <c r="A87" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
         <v>175</v>
       </c>
-      <c r="B87" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" t="s">
-        <v>174</v>
-      </c>
       <c r="D87" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>137.41321527929483</v>
+        <v>136.51821914064516</v>
       </c>
       <c r="E87" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>35.675296304576094</v>
-      </c>
-      <c r="F87" s="13"/>
+        <v>34.888998187204244</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="88" spans="1:6" ht="12.5">
-      <c r="A88" s="11" t="s">
-        <v>177</v>
+      <c r="A88" t="s">
+        <v>179</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D88" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>136.51821914064516</v>
+        <v>137.5262788062996</v>
       </c>
       <c r="E88" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>34.888998187204244</v>
-      </c>
-      <c r="F88" s="12" t="s">
-        <v>178</v>
+        <v>36.240417178219104</v>
+      </c>
+      <c r="F88" s="15" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="12.5">
-      <c r="A89" t="s">
-        <v>180</v>
+      <c r="A89" s="13" t="s">
+        <v>181</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D89" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>137.5262788062996</v>
+        <v>136.59792406012048</v>
       </c>
       <c r="E89" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>36.240417178219104</v>
-      </c>
-      <c r="F89" s="15" t="s">
-        <v>181</v>
+        <v>35.2152135727667</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="12.5">
-      <c r="A90" s="13" t="s">
-        <v>182</v>
+      <c r="A90" s="12" t="s">
+        <v>184</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
         <v>183</v>
       </c>
       <c r="D90" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>136.59792406012048</v>
+        <v>136.2520089657384</v>
       </c>
       <c r="E90" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>35.2152135727667</v>
+        <v>34.01529443386431</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="12.5">
-      <c r="A91" s="12" t="s">
-        <v>185</v>
+      <c r="A91" s="13" t="s">
+        <v>186</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D91" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>136.2520089657384</v>
+        <v>136.215925799982</v>
       </c>
       <c r="E91" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>34.01529443386431</v>
-      </c>
-      <c r="F91" s="13" t="s">
-        <v>186</v>
+        <v>34.06103688646511</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="12.5">
-      <c r="A92" s="13" t="s">
+      <c r="A92" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="B92" t="s">
-        <v>7</v>
+      <c r="B92" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>189</v>
       </c>
       <c r="D92" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>136.215925799982</v>
+        <v>136.18725522712225</v>
       </c>
       <c r="E92" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>34.06103688646511</v>
+        <v>34.070623299276214</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="12.5">
       <c r="A93" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>5</v>
+        <v>192</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D93" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>136.18725522712225</v>
+        <v>137.80965684391458</v>
       </c>
       <c r="E93" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>34.070623299276214</v>
-      </c>
+        <v>36.53346277124687</v>
+      </c>
+      <c r="F93" s="13"/>
     </row>
     <row r="94" spans="1:6" ht="12.5">
       <c r="A94" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
         <v>194</v>
       </c>
       <c r="D94" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>137.80965684391458</v>
+        <v>137.8598578602401</v>
       </c>
       <c r="E94" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>36.53346277124687</v>
-      </c>
-      <c r="F94" s="13"/>
-    </row>
-    <row r="95" spans="1:6" ht="12.5">
-      <c r="A95" s="12" t="s">
-        <v>192</v>
+        <v>36.50335790370913</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A95" s="17" t="s">
+        <v>196</v>
       </c>
       <c r="B95" t="s">
         <v>9</v>
@@ -4074,38 +4102,35 @@
       </c>
       <c r="D95" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>137.8598578602401</v>
+        <v>136.98064526453217</v>
       </c>
       <c r="E95" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>36.50335790370913</v>
-      </c>
-      <c r="F95" s="13" t="s">
-        <v>191</v>
+        <v>34.549888592987095</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A96" s="17" t="s">
+      <c r="A96" t="s">
         <v>197</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D96" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>136.98064526453217</v>
+        <v>136.90238920233313</v>
       </c>
       <c r="E96" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>34.549888592987095</v>
+        <v>36.17325862637235</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="15.75" customHeight="1">
       <c r="A97" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
@@ -4115,574 +4140,558 @@
       </c>
       <c r="D97" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>136.90238920233313</v>
+        <v>138.0605808099923</v>
       </c>
       <c r="E97" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>36.17325862637235</v>
+        <v>35.83963411349582</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A98" t="s">
+      <c r="A98" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" t="s">
         <v>201</v>
       </c>
-      <c r="B98" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" t="s">
-        <v>200</v>
-      </c>
       <c r="D98" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>138.0605808099923</v>
+        <v>137.97066357724046</v>
       </c>
       <c r="E98" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>35.83963411349582</v>
-      </c>
-      <c r="F98" s="14" t="s">
+        <v>35.851096730740544</v>
+      </c>
+      <c r="F98" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A99" s="15" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A99" s="13" t="s">
-        <v>204</v>
-      </c>
       <c r="B99" t="s">
         <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>202</v>
+        <v>264</v>
       </c>
       <c r="D99" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>137.97066357724046</v>
+        <v>137.8660843411444</v>
       </c>
       <c r="E99" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>35.851096730740544</v>
-      </c>
-      <c r="F99" s="13" t="s">
-        <v>203</v>
+        <v>36.70262762775586</v>
+      </c>
+      <c r="F99" s="15" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="15.75" customHeight="1">
       <c r="A100" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" t="s">
+        <v>266</v>
+      </c>
+      <c r="D100" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>137.84855794023966</v>
+      </c>
+      <c r="E100" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>36.65854028176169</v>
+      </c>
+      <c r="F100" s="15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A101" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" t="s">
+        <v>269</v>
+      </c>
+      <c r="D101" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>137.84806035583335</v>
+      </c>
+      <c r="E101" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>36.695168778886604</v>
+      </c>
+      <c r="F101" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="B100" t="s">
-        <v>9</v>
-      </c>
-      <c r="C100" t="s">
-        <v>265</v>
-      </c>
-      <c r="D100" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>137.8660843411444</v>
-      </c>
-      <c r="E100" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>36.70262762775586</v>
-      </c>
-      <c r="F100" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A101" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="B101" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101" t="s">
-        <v>267</v>
-      </c>
-      <c r="D101" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>137.84855794023966</v>
-      </c>
-      <c r="E101" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>36.65854028176169</v>
-      </c>
-      <c r="F101" s="15" t="s">
-        <v>268</v>
-      </c>
     </row>
     <row r="102" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A102" s="12" t="s">
-        <v>269</v>
+      <c r="A102" t="s">
+        <v>207</v>
       </c>
       <c r="B102" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>270</v>
+        <v>208</v>
       </c>
       <c r="D102" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>137.84806035583335</v>
+        <v>137.8455982324764</v>
       </c>
       <c r="E102" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>36.695168778886604</v>
-      </c>
-      <c r="F102" s="11" t="s">
-        <v>207</v>
+        <v>36.6705389989693</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A103" t="s">
-        <v>208</v>
+      <c r="A103" s="11" t="s">
+        <v>209</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D103" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>137.8455982324764</v>
+        <v>137.87319502113795</v>
       </c>
       <c r="E103" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>36.6705389989693</v>
+        <v>36.57048463635225</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="15.75" customHeight="1">
       <c r="A104" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="B104" t="s">
-        <v>9</v>
+        <v>212</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D104" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>137.87319502113795</v>
+        <v>137.8997021246643</v>
       </c>
       <c r="E104" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>36.57048463635225</v>
-      </c>
-      <c r="F104" s="11" t="s">
-        <v>212</v>
+        <v>36.76411730652921</v>
+      </c>
+      <c r="F104" s="15" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="15.75" customHeight="1">
       <c r="A105" s="11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D105" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>137.8997021246643</v>
+        <v>137.8878217932432</v>
       </c>
       <c r="E105" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>36.76411730652921</v>
+        <v>36.38933646829548</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A106" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>5</v>
+      <c r="A106" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B106" t="s">
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D106" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>137.8878217932432</v>
+        <v>137.93092825401743</v>
       </c>
       <c r="E106" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>36.38933646829548</v>
-      </c>
-      <c r="F106" s="15" t="s">
-        <v>217</v>
+        <v>36.32332178039869</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A107" s="15" t="s">
-        <v>219</v>
+      <c r="A107" s="11" t="s">
+        <v>221</v>
       </c>
       <c r="B107" t="s">
         <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>221</v>
+        <v>270</v>
       </c>
       <c r="D107" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>137.93092825401743</v>
+        <v>137.8877706853117</v>
       </c>
       <c r="E107" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>36.32332178039869</v>
+        <v>36.30127665741703</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="15.75" customHeight="1">
       <c r="A108" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B108" t="s">
         <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="D108" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>137.8877706853117</v>
+        <v>138.41064017191377</v>
       </c>
       <c r="E108" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>36.30127665741703</v>
-      </c>
-      <c r="F108" s="11" t="s">
-        <v>223</v>
+        <v>36.74269529466445</v>
+      </c>
+      <c r="F108" s="15" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A109" s="11" t="s">
-        <v>224</v>
+      <c r="A109" s="15" t="s">
+        <v>226</v>
       </c>
       <c r="B109" t="s">
         <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D109" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>138.41064017191377</v>
+        <v>137.55187898142785</v>
       </c>
       <c r="E109" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>36.74269529466445</v>
+        <v>36.184840069702105</v>
       </c>
       <c r="F109" s="15" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="15.75" customHeight="1">
       <c r="A110" s="15" t="s">
-        <v>227</v>
+        <v>170</v>
       </c>
       <c r="B110" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D110" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>137.55187898142785</v>
+        <v>137.55055594204134</v>
       </c>
       <c r="E110" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>36.184840069702105</v>
-      </c>
-      <c r="F110" s="15" t="s">
-        <v>229</v>
+        <v>36.18925687547666</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="15.75" customHeight="1">
       <c r="A111" s="15" t="s">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D111" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>137.55055594204134</v>
+        <v>137.91776483797724</v>
       </c>
       <c r="E111" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>36.18925687547666</v>
+        <v>35.74022593792452</v>
+      </c>
+      <c r="F111" s="15" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="15.75" customHeight="1">
       <c r="A112" s="15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B112" t="s">
         <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D112" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>137.91776483797724</v>
+        <v>137.8605324125776</v>
       </c>
       <c r="E112" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>35.74022593792452</v>
+        <v>36.50215817828989</v>
+      </c>
+      <c r="F112" s="15" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="15.75" customHeight="1">
       <c r="A113" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="B113" t="s">
-        <v>9</v>
-      </c>
-      <c r="C113" t="s">
-        <v>234</v>
+        <v>237</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>235</v>
       </c>
       <c r="D113" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>137.8605324125776</v>
+        <v>137.90238278185245</v>
       </c>
       <c r="E113" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>36.50215817828989</v>
+        <v>36.659774944203946</v>
       </c>
       <c r="F113" s="15" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="15.75" customHeight="1">
       <c r="A114" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="B114" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C114" s="11" t="s">
-        <v>236</v>
+        <v>239</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" t="s">
+        <v>240</v>
       </c>
       <c r="D114" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>137.90238278185245</v>
+        <v>137.77086462762534</v>
       </c>
       <c r="E114" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>36.659774944203946</v>
+        <v>35.91367532763233</v>
       </c>
       <c r="F114" s="15" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="15.75" customHeight="1">
       <c r="A115" s="15" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B115" t="s">
         <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D115" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>137.77086462762534</v>
+        <v>137.8549824310452</v>
       </c>
       <c r="E115" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>35.91367532763233</v>
+        <v>36.00639582844696</v>
       </c>
       <c r="F115" s="15" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="15.75" customHeight="1">
       <c r="A116" s="15" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B116" t="s">
         <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D116" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>137.8549824310452</v>
+        <v>136.82971036477895</v>
       </c>
       <c r="E116" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>36.00639582844696</v>
+        <v>35.9284627538695</v>
       </c>
       <c r="F116" s="15" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="15.75" customHeight="1">
       <c r="A117" s="15" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B117" t="s">
         <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D117" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>136.82971036477895</v>
+        <v>136.87155373208105</v>
       </c>
       <c r="E117" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>35.9284627538695</v>
+        <v>36.37763825769816</v>
       </c>
       <c r="F117" s="15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="15.75" customHeight="1">
       <c r="A118" s="15" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B118" t="s">
         <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D118" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>136.87155373208105</v>
+        <v>137.2544953315983</v>
       </c>
       <c r="E118" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>36.37763825769816</v>
+        <v>36.187341953082836</v>
       </c>
       <c r="F118" s="15" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="15.75" customHeight="1">
       <c r="A119" s="15" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B119" t="s">
         <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D119" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>137.2544953315983</v>
+        <v>136.53193328966583</v>
       </c>
       <c r="E119" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>36.187341953082836</v>
+        <v>35.00280006841797</v>
       </c>
       <c r="F119" s="15" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A120" s="15" t="s">
-        <v>255</v>
+      <c r="A120" s="18" t="s">
+        <v>257</v>
       </c>
       <c r="B120" t="s">
         <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D120" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>136.53193328966583</v>
+        <v>135.9841847373755</v>
       </c>
       <c r="E120" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>35.00280006841797</v>
+        <v>34.97321406896061</v>
       </c>
       <c r="F120" s="15" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A121" s="18" t="s">
-        <v>258</v>
+      <c r="A121" s="15" t="s">
+        <v>261</v>
       </c>
       <c r="B121" t="s">
         <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D121" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>135.9841847373755</v>
+        <v>138.19678065460903</v>
       </c>
       <c r="E121" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>34.97321406896061</v>
+        <v>35.95509760579301</v>
       </c>
       <c r="F121" s="15" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="15.75" customHeight="1">
       <c r="A122" s="15" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="B122" t="s">
         <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="D122" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>138.19678065460903</v>
+        <v>137.25090443501742</v>
       </c>
       <c r="E122" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>35.95509760579301</v>
+        <v>36.681135849110234</v>
       </c>
       <c r="F122" s="15" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A123" s="15" t="s">
         <v>275</v>
-      </c>
-      <c r="B123" t="s">
-        <v>9</v>
-      </c>
-      <c r="C123" t="s">
-        <v>274</v>
-      </c>
-      <c r="D123" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>137.25090443501742</v>
-      </c>
-      <c r="E123" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>36.681135849110234</v>
-      </c>
-      <c r="F123" s="15" t="s">
-        <v>276</v>
       </c>
     </row>
   </sheetData>
